--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Norm_beta_Abs_deltax_18-Jan-2024.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Norm_beta_Abs_deltax_18-Jan-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E63A9524-ED36-48DE-B4E3-97C96B876C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F2D2E7-F54B-4C13-B360-D37B6631DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{65A49D4C-41BF-43F4-AC99-753BBC3DF601}"/>
+    <workbookView minimized="1" xWindow="6225" yWindow="1770" windowWidth="7500" windowHeight="7875" xr2:uid="{65A49D4C-41BF-43F4-AC99-753BBC3DF601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22401C23-D682-4B8B-B252-DDF8B47B8531}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,562 +432,562 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0.99786008705180962</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.4991209544081659</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.002528140582081</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.49936771380112482</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>0.51140217367206442</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.16904159336666102</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.49345595892090122</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.16388835582752057</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>0.8266999805328209</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.67288794485705616</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.82796673554265809</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.67293804432571702</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>0.50131734781609283</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.16569841893065762</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.4836779810868157</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.16064864013483857</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>0.56698834718994895</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.93278661234545956</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.56798460948861018</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.93282351051366141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>0.44310762673130361</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.14646031301926027</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.42750964851478701</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.14199646590951279</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>0.30675467213304197</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1.1924364596330241</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.3079609829191825</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.1924802801127163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>0.30698208747146571</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.10146357460010706</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.29620074068032992</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>9.8371409362983914E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>0.99860240281043833</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.50065012361469208</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.99392015428498981</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.50135888134615425</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>0.2349470388044218</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>9.8194671896675523E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.21896999491634961</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>9.317137842978894E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>0.82497368199859356</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.67343909176679362</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.82521464726095883</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.67338724875895084</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>0.23006500641586511</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>9.624969239055664E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.21453022858861845</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>9.1336692280720194E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>0.56543337648906244</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0.93323237550477689</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.56569658730707828</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.93317760046865139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>0.20331685729671031</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>8.5070262826838994E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.18960982139474539</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>8.0729539869812877E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>0.30598365658637888</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1.1928988556618298</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.30584595992591168</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>1.1929096589136401</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>0.14096820533349128</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>5.8944667422378499E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.13140312611462321</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>5.5933703022311029E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>0.99663497960152503</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.50202713596787396</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.99571558082954315</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.50275697517377271</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>0.15457532924630391</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>7.6424103763141127E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0.1466894333378102</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>7.3599028925409149E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>0.82753122338538809</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0.67305405883136182</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.82778109080285367</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.6730999541000976</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>0.15149946940656334</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>7.493748714937884E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.14373908394418913</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>7.2195056552172149E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>0.56765702846821842</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0.93284268292712447</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.56785227397504867</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.93287318200971869</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>0.13389103302493965</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>6.6231453955449798E-2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.12702599505568027</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>6.3807964961545116E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>0.30742426242200366</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1.1929001928395568</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.30763576630127643</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>1.1929815359614206</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>9.2805825696389926E-2</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>4.5890909374386418E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>8.8076211426213094E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>4.4206946900364134E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>1.0007908989926484</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.5008296972216445</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.99901638564496842</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.50114243590073815</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>7.2544784281550034E-2</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>4.0800283012019954E-2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>6.8475092261669812E-2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>3.9882846957318759E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>0.82681822207316968</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.67326918853204021</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.82661903926041302</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.67333367070100392</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>7.111772320791318E-2</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>4.0001864830252358E-2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>6.7123122160009666E-2</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>3.9104725660358046E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>0.56700961026790453</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>0.93304858570800531</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.56685314012663723</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.93309876890899024</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>6.2859901452571781E-2</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>3.5357881464055399E-2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>5.9329730393826878E-2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>3.4566001605453527E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>0.30719863201942427</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>1.1929568432083162</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>0.30698277041532562</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>1.1930218787736036</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>4.3549552604441828E-2</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>2.44914866801808E-2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>4.1102016143305789E-2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>2.3939281595630545E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>1.0023272488322634</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>0.49902417307716068</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1.0020485462318873</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0.49918532186131059</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>5.0787482856278036E-2</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>2.9818078537384836E-2</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>4.8113479284865063E-2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>2.877498805215439E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>0.82744710067506977</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>0.67273044600063681</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0.8274710397038807</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0.6727401894371895</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>4.9688903526343246E-2</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>2.9110954310556474E-2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>4.7038026671353012E-2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>2.8084852768412327E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>0.5675097295485273</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>0.93263017356569045</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0.56752709818354452</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.9326375579752092</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>4.3916969859990676E-2</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>2.5727149924763819E-2</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>4.1574594127921076E-2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>2.4819907910318864E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>0.30777906060765953</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>1.1924089007216119</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>0.30780112227928486</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>1.1924235012437805</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>3.0439884874637738E-2</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>1.7845475284816014E-2</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>2.8818268497709739E-2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>1.7218935958409544E-2</v>
       </c>
     </row>
